--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/olb-tool/nymbus-banks/banks/inspire/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A0FE6-DE47-1F49-B266-530BBB9C6CB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4A922-1176-B644-84D4-9CA542958CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20840" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="116">
   <si>
     <t>Author:</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>RightSubSetID</t>
-  </si>
-  <si>
-    <t>Request to edit contacts</t>
   </si>
   <si>
     <t>Notification rule</t>
@@ -1005,76 +1002,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1477,51 +1474,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="76"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="62">
         <v>42895</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1537,228 +1534,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="75"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="71"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="71"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1771,286 +1768,238 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="68"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="H25" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="64"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="64"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="64"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2061,6 +2010,54 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2069,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F133CF2-8B91-7449-B1B9-76EE1433B699}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD25"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2089,7 +2086,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2117,34 +2114,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2172,7 +2169,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>78</v>
@@ -2188,15 +2185,15 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>79</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>80</v>
@@ -2244,7 +2241,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>81</v>
@@ -2266,71 +2263,71 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="48">
+        <v>200</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="48">
-        <v>200</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="39">
+        <v>204</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="C11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="39">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>84</v>
@@ -2338,9 +2335,7 @@
       <c r="C12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
         <v>70</v>
       </c>
@@ -2353,16 +2348,18 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="39">
-        <v>202</v>
-      </c>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="29">
+        <v>229</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="53" t="s">
         <v>70</v>
       </c>
@@ -2371,12 +2368,12 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>86</v>
@@ -2398,22 +2395,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>224</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -2422,36 +2409,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="29">
+        <v>252</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="29">
-        <v>252</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="29"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -2460,12 +2447,22 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="29">
+        <v>713</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -2474,22 +2471,12 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="29">
-        <v>713</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -2498,75 +2485,61 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="29">
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="29">
         <v>813</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-    </row>
-    <row r="23" spans="1:12" ht="16">
-      <c r="A23" s="58">
+      <c r="B20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="16">
+      <c r="A22" s="58">
         <v>222</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="53"/>
+      <c r="B22" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2615,13 +2588,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="80" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="81" t="s">
@@ -2633,63 +2606,63 @@
       <c r="F1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="78" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="78" t="s">
+      <c r="V1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="78" t="s">
+      <c r="W1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="78" t="s">
+      <c r="X1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="78" t="s">
+      <c r="Y1" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="78" t="s">
+      <c r="Z1" s="83" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -2717,12 +2690,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -2782,16 +2755,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2800,6 +2763,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2808,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2860,34 +2833,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2915,7 +2888,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>78</v>
@@ -2929,19 +2902,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>79</v>
@@ -2955,7 +2926,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -2965,7 +2938,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>80</v>
@@ -2991,7 +2964,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>81</v>
@@ -3015,73 +2988,71 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="48">
+        <v>200</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="48">
-        <v>200</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="39">
+        <v>204</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="C11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="39">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>84</v>
@@ -3089,9 +3060,7 @@
       <c r="C12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
         <v>70</v>
       </c>
@@ -3104,16 +3073,18 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="39">
-        <v>202</v>
-      </c>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="29">
+        <v>229</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="53" t="s">
         <v>70</v>
       </c>
@@ -3122,12 +3093,12 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>86</v>
@@ -3149,22 +3120,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>224</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -3173,36 +3134,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="29">
+        <v>252</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="29">
-        <v>252</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="29"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -3211,12 +3172,22 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="29">
+        <v>713</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -3225,22 +3196,12 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="29">
-        <v>713</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -3249,13 +3210,25 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="39">
+        <v>830</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
@@ -3265,9 +3238,9 @@
     </row>
     <row r="21" spans="1:12" ht="16">
       <c r="A21" s="39">
-        <v>830</v>
-      </c>
-      <c r="B21" s="52" t="s">
+        <v>831</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -3276,7 +3249,7 @@
       <c r="D21" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="55" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="53" t="s">
@@ -3286,12 +3259,12 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" ht="16">
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>91</v>
@@ -3302,24 +3275,24 @@
       <c r="D22" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="46"/>
+      <c r="E22" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
       <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
+        <v>833</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="53" t="s">
@@ -3339,27 +3312,15 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="39">
-        <v>833</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -3381,23 +3342,35 @@
       <c r="K25" s="36"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" ht="14" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="30"/>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29">
+        <v>313</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>94</v>
@@ -3423,7 +3396,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>95</v>
@@ -3449,10 +3422,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>712</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>96</v>
+        <v>316</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>114</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>70</v>
@@ -3475,48 +3448,48 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>316</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>115</v>
+        <v>318</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="34"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
@@ -3526,37 +3499,35 @@
       <c r="L31" s="35"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29">
-        <v>317</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="54"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="28"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="A33" s="29">
+        <v>250</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -3565,9 +3536,9 @@
       <c r="K33" s="36"/>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>97</v>
@@ -3581,7 +3552,9 @@
       <c r="E34" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -3591,7 +3564,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>98</v>
@@ -3617,7 +3590,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>99</v>
@@ -3642,24 +3615,12 @@
       <c r="L36" s="28"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="29">
-        <v>373</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A37" s="54"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -3667,23 +3628,37 @@
       <c r="K37" s="36"/>
       <c r="L37" s="28"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="54"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="28"/>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="A38" s="29">
+        <v>601</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+    </row>
+    <row r="39" spans="1:12" ht="16">
       <c r="A39" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>101</v>
@@ -3709,40 +3684,36 @@
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="29">
-        <v>600</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="40" spans="1:12">
+      <c r="A40" s="54"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
-      <c r="I40" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="54"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+    <row r="41" spans="1:12" ht="16">
+      <c r="A41" s="29">
+        <v>813</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
       <c r="H41" s="57"/>
@@ -3751,47 +3722,41 @@
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
     </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="29">
-        <v>813</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" spans="1:12" ht="16">
+      <c r="A43" s="58">
+        <v>222</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="16">
       <c r="A44" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>105</v>
@@ -3805,11 +3770,13 @@
       <c r="E44" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="53" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="16">
-      <c r="A45" s="58">
-        <v>675</v>
+      <c r="A45" s="39">
+        <v>767</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>106</v>
@@ -3824,26 +3791,6 @@
         <v>70</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="16">
-      <c r="A46" s="39">
-        <v>767</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="53" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3862,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3886,7 +3833,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -3914,34 +3861,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3969,7 +3916,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>78</v>
@@ -3983,19 +3930,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>79</v>
@@ -4009,7 +3954,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -4019,7 +3966,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>80</v>
@@ -4045,7 +3992,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>81</v>
@@ -4069,73 +4016,71 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="48">
+        <v>200</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="48">
-        <v>200</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="39">
+        <v>204</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="C11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="39">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>84</v>
@@ -4143,9 +4088,7 @@
       <c r="C12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
         <v>70</v>
       </c>
@@ -4158,16 +4101,18 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="39">
-        <v>202</v>
-      </c>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="29">
+        <v>229</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="53" t="s">
         <v>70</v>
       </c>
@@ -4176,12 +4121,12 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>86</v>
@@ -4203,22 +4148,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>224</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -4227,36 +4162,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="29">
+        <v>252</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="29">
-        <v>252</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="29"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -4265,12 +4200,22 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="29">
+        <v>713</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -4279,22 +4224,12 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="29">
-        <v>713</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -4303,13 +4238,25 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="39">
+        <v>830</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
@@ -4319,9 +4266,9 @@
     </row>
     <row r="21" spans="1:12" ht="16">
       <c r="A21" s="39">
-        <v>830</v>
-      </c>
-      <c r="B21" s="52" t="s">
+        <v>831</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -4330,7 +4277,7 @@
       <c r="D21" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="55" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="53" t="s">
@@ -4340,12 +4287,12 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" ht="16">
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>91</v>
@@ -4356,24 +4303,24 @@
       <c r="D22" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="46"/>
+      <c r="E22" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
       <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
+        <v>833</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="53" t="s">
@@ -4393,27 +4340,15 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="39">
-        <v>833</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -4435,23 +4370,35 @@
       <c r="K25" s="36"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" ht="14" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="30"/>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29">
+        <v>313</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>94</v>
@@ -4477,7 +4424,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>95</v>
@@ -4503,60 +4450,60 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>712</v>
+        <v>318</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>70</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="34"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>318</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>69</v>
+        <v>316</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>114</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>316</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>115</v>
+        <v>317</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>70</v>
@@ -4575,40 +4522,38 @@
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="35"/>
-      <c r="L31" s="34"/>
+      <c r="L31" s="35"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="29">
-        <v>317</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="54"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="28"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="A33" s="29">
+        <v>250</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -4617,9 +4562,9 @@
       <c r="K33" s="36"/>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>97</v>
@@ -4633,7 +4578,9 @@
       <c r="E34" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -4643,7 +4590,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>98</v>
@@ -4669,7 +4616,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>99</v>
@@ -4694,24 +4641,12 @@
       <c r="L36" s="28"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="29">
-        <v>373</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A37" s="54"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -4719,23 +4654,37 @@
       <c r="K37" s="36"/>
       <c r="L37" s="28"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="54"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="28"/>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="A38" s="29">
+        <v>601</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+    </row>
+    <row r="39" spans="1:12" ht="16">
       <c r="A39" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>101</v>
@@ -4761,40 +4710,36 @@
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="29">
-        <v>600</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="40" spans="1:12">
+      <c r="A40" s="54"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
-      <c r="I40" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="54"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
+    <row r="41" spans="1:12" ht="16">
+      <c r="A41" s="29">
+        <v>813</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
       <c r="H41" s="57"/>
@@ -4805,7 +4750,7 @@
     </row>
     <row r="42" spans="1:12" ht="16">
       <c r="A42" s="29">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>103</v>
@@ -4813,13 +4758,13 @@
       <c r="C42" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="D42" s="57"/>
       <c r="E42" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="F42" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G42" s="57"/>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
@@ -4827,47 +4772,41 @@
       <c r="K42" s="57"/>
       <c r="L42" s="57"/>
     </row>
-    <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="29">
-        <v>814</v>
-      </c>
-      <c r="B43" s="29" t="s">
+    <row r="43" spans="1:12">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+    </row>
+    <row r="44" spans="1:12" ht="16">
+      <c r="A44" s="58">
+        <v>222</v>
+      </c>
+      <c r="B44" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
+      <c r="C44" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:12" ht="16">
       <c r="A45" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B45" s="52" t="s">
         <v>105</v>
@@ -4881,11 +4820,13 @@
       <c r="E45" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="53" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="16">
-      <c r="A46" s="58">
-        <v>675</v>
+      <c r="A46" s="39">
+        <v>767</v>
       </c>
       <c r="B46" s="52" t="s">
         <v>106</v>
@@ -4900,26 +4841,6 @@
         <v>70</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="16">
-      <c r="A47" s="39">
-        <v>767</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="53" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4938,10 +4859,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4962,7 +4883,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -4990,34 +4911,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5045,7 +4966,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>78</v>
@@ -5059,19 +4980,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>79</v>
@@ -5085,7 +5004,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -5095,7 +5016,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>80</v>
@@ -5121,7 +5042,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>81</v>
@@ -5145,49 +5066,51 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>101</v>
@@ -5213,40 +5136,36 @@
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="29">
-        <v>600</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -5254,30 +5173,6 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="29">
-        <v>813</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5294,10 +5189,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5318,7 +5213,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -5346,34 +5241,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5401,7 +5296,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>78</v>
@@ -5415,19 +5310,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>79</v>
@@ -5441,7 +5334,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -5451,7 +5346,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>80</v>
@@ -5477,7 +5372,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>81</v>
@@ -5501,49 +5396,51 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>101</v>
@@ -5569,40 +5466,36 @@
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="29">
-        <v>600</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -5610,30 +5503,6 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="29">
-        <v>813</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5650,10 +5519,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5674,7 +5543,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -5702,34 +5571,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5757,7 +5626,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>78</v>
@@ -5771,19 +5640,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>79</v>
@@ -5797,7 +5664,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -5807,7 +5676,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>80</v>
@@ -5833,7 +5702,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>81</v>
@@ -5857,49 +5726,51 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>101</v>
@@ -5925,40 +5796,36 @@
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="29">
-        <v>600</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
-      <c r="I12" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -5966,30 +5833,6 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="29">
-        <v>813</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6006,10 +5849,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6030,7 +5873,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -6058,34 +5901,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6113,7 +5956,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>78</v>
@@ -6127,19 +5970,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>79</v>
@@ -6153,7 +5994,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -6163,7 +6006,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>80</v>
@@ -6189,7 +6032,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>81</v>
@@ -6213,49 +6056,51 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="39"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
       <c r="A11" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>101</v>
@@ -6274,32 +6119,18 @@
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
-      <c r="I11" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I11" s="57"/>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="29">
-        <v>600</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
@@ -6307,12 +6138,22 @@
       <c r="K12" s="57"/>
       <c r="L12" s="57"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="54"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -6320,30 +6161,6 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="57"/>
-    </row>
-    <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="29">
-        <v>813</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6360,10 +6177,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L45"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6384,7 +6201,7 @@
         <v>75</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -6412,34 +6229,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6467,7 +6284,7 @@
     </row>
     <row r="5" spans="1:12" ht="16">
       <c r="A5" s="39">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>78</v>
@@ -6481,19 +6298,17 @@
       <c r="E5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="30"/>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="16">
       <c r="A6" s="39">
-        <v>299</v>
+        <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>79</v>
@@ -6507,7 +6322,9 @@
       <c r="E6" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -6517,7 +6334,7 @@
     </row>
     <row r="7" spans="1:12" ht="16">
       <c r="A7" s="39">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>80</v>
@@ -6543,7 +6360,7 @@
     </row>
     <row r="8" spans="1:12" ht="16">
       <c r="A8" s="39">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>81</v>
@@ -6567,73 +6384,71 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="39">
-        <v>882</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>70</v>
-      </c>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" s="47" customFormat="1" ht="14" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="48">
+        <v>200</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="48">
-        <v>200</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="39">
+        <v>204</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="C11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="16">
       <c r="A12" s="39">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>84</v>
@@ -6641,9 +6456,7 @@
       <c r="C12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
         <v>70</v>
       </c>
@@ -6656,16 +6469,18 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="39">
-        <v>202</v>
-      </c>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="29">
+        <v>229</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="53" t="s">
         <v>70</v>
       </c>
@@ -6674,12 +6489,12 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>86</v>
@@ -6701,22 +6516,12 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="29">
-        <v>224</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -6725,36 +6530,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="54"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="55"/>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="29">
+        <v>252</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="29">
-        <v>252</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="29"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -6763,12 +6568,22 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+    <row r="18" spans="1:12" ht="16">
+      <c r="A18" s="29">
+        <v>713</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -6777,22 +6592,12 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="29">
-        <v>713</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>70</v>
-      </c>
+    <row r="19" spans="1:12">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -6801,12 +6606,22 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="39"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+    <row r="20" spans="1:12" ht="16">
+      <c r="A20" s="39">
+        <v>830</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -6817,9 +6632,9 @@
     </row>
     <row r="21" spans="1:12" ht="16">
       <c r="A21" s="39">
-        <v>830</v>
-      </c>
-      <c r="B21" s="52" t="s">
+        <v>831</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="53" t="s">
@@ -6828,7 +6643,7 @@
       <c r="D21" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="55" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="53"/>
@@ -6836,12 +6651,12 @@
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" ht="16">
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>91</v>
@@ -6852,22 +6667,22 @@
       <c r="D22" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="46"/>
+      <c r="E22" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
       <c r="A23" s="39">
-        <v>832</v>
-      </c>
-      <c r="B23" s="44" t="s">
+        <v>833</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="53" t="s">
@@ -6879,33 +6694,23 @@
       <c r="E23" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="42" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="28"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="39">
-        <v>833</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>70</v>
-      </c>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
@@ -6927,26 +6732,36 @@
       <c r="K25" s="36"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" ht="14" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="30"/>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29">
+        <v>313</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>313</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>94</v>
+        <v>316</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>114</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>70</v>
@@ -6957,7 +6772,9 @@
       <c r="E27" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="34"/>
+      <c r="F27" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
@@ -6967,54 +6784,54 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="34"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>318</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+        <v>316</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>316</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>115</v>
+        <v>317</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>70</v>
@@ -7025,46 +6842,44 @@
       <c r="E30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>70</v>
-      </c>
+      <c r="F30" s="34"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="34"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="29">
-        <v>317</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="54"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="28"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="29">
+        <v>250</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -7073,9 +6888,9 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>97</v>
@@ -7099,7 +6914,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>98</v>
@@ -7123,7 +6938,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>99</v>
@@ -7146,21 +6961,11 @@
       <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="29">
-        <v>373</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A36" s="54"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -7169,23 +6974,37 @@
       <c r="K36" s="36"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="28"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="A37" s="29">
+        <v>601</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+    </row>
+    <row r="38" spans="1:12" ht="16">
       <c r="A38" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>101</v>
@@ -7204,32 +7023,18 @@
       </c>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
-      <c r="I38" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I38" s="57"/>
       <c r="J38" s="57"/>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>600</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="39" spans="1:12">
+      <c r="A39" s="54"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
@@ -7237,12 +7042,22 @@
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="54"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="29">
+        <v>813</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F40" s="57"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
@@ -7251,47 +7066,41 @@
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="29">
-        <v>813</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+    <row r="41" spans="1:12">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="58">
+        <v>222</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="16">
       <c r="A43" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>105</v>
@@ -7308,8 +7117,8 @@
       <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="58">
-        <v>675</v>
+      <c r="A44" s="39">
+        <v>767</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>106</v>
@@ -7324,24 +7133,6 @@
         <v>70</v>
       </c>
       <c r="F44" s="53"/>
-    </row>
-    <row r="45" spans="1:12" ht="16">
-      <c r="A45" s="39">
-        <v>767</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4A922-1176-B644-84D4-9CA542958CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133FA36F-E57E-3746-8D00-D017406D4CF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20840" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="_Toc442359491" localSheetId="1">'Operation list'!#REF!</definedName>
     <definedName name="_Toc442359492" localSheetId="1">'Operation list'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="116">
   <si>
     <t>Author:</t>
   </si>
@@ -1002,56 +1002,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1060,18 +1072,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1474,51 +1474,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="77">
         <v>42895</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1534,228 +1534,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="64"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="66"/>
+      <c r="I8" s="75"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="68"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1768,238 +1768,286 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="72"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="68"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="69"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="75"/>
+      <c r="I27" s="64"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="75" t="s">
+      <c r="H28" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="75"/>
+      <c r="I28" s="64"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="75"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="75" t="s">
+      <c r="H30" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="75"/>
+      <c r="I30" s="64"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="69"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="69"/>
+      <c r="I32" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2010,54 +2058,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2114,34 +2114,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2588,13 +2588,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="84" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="81" t="s">
@@ -2606,63 +2606,63 @@
       <c r="F1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="83" t="s">
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="V1" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="83" t="s">
+      <c r="X1" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Y1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="83" t="s">
+      <c r="Z1" s="78" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -2690,12 +2690,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -2755,6 +2755,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2763,16 +2773,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2784,7 +2784,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2833,34 +2833,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3269,18 +3269,10 @@
       <c r="B22" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -3812,7 +3804,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3861,34 +3853,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4297,18 +4289,10 @@
       <c r="B22" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -4911,34 +4895,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5241,34 +5225,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5571,34 +5555,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5901,34 +5885,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6180,7 +6164,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6229,34 +6213,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6661,15 +6645,9 @@
       <c r="B22" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>70</v>
-      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133FA36F-E57E-3746-8D00-D017406D4CF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E59017-5882-0B48-A762-0FEB6A35FF3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20840" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63860" yWindow="6400" windowWidth="38400" windowHeight="20840" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="116">
   <si>
     <t>Author:</t>
   </si>
@@ -1002,76 +1002,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1474,51 +1474,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="76"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="62">
         <v>42895</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1534,228 +1534,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="73"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="75"/>
+      <c r="I8" s="66"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="71"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="71"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="71"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="71"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="71"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="71"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="71"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="71"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="71"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="71"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1768,286 +1768,238 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="68" t="s">
+      <c r="H21" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="68"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="H25" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="62"/>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="64"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="64"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="64"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="64"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="62"/>
+      <c r="I32" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2058,6 +2010,54 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2114,34 +2114,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2588,13 +2588,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="80" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="81" t="s">
@@ -2606,63 +2606,63 @@
       <c r="F1" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="78" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="78" t="s">
+      <c r="V1" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="78" t="s">
+      <c r="W1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="78" t="s">
+      <c r="X1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="78" t="s">
+      <c r="Y1" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="78" t="s">
+      <c r="Z1" s="83" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -2690,12 +2690,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -2755,16 +2755,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2773,6 +2763,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2781,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2833,34 +2833,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3264,41 +3264,37 @@
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>832</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="28"/>
+        <v>833</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="39">
-        <v>833</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -3320,26 +3316,38 @@
       <c r="K24" s="36"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>313</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>70</v>
@@ -3362,10 +3370,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>70</v>
@@ -3388,10 +3396,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>712</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>95</v>
+        <v>316</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>114</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>70</v>
@@ -3414,48 +3422,48 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>316</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>114</v>
+        <v>318</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="34"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
@@ -3465,37 +3473,35 @@
       <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="29">
-        <v>317</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="54"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="28"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="29">
+        <v>250</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -3504,12 +3510,12 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="56" t="s">
         <v>70</v>
@@ -3520,7 +3526,9 @@
       <c r="E33" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -3530,10 +3538,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="56" t="s">
         <v>70</v>
@@ -3556,10 +3564,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="56" t="s">
         <v>70</v>
@@ -3581,24 +3589,12 @@
       <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="29">
-        <v>373</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A36" s="54"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -3606,26 +3602,40 @@
       <c r="K36" s="36"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="28"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="A37" s="29">
+        <v>601</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+    </row>
+    <row r="38" spans="1:12" ht="16">
       <c r="A38" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="57" t="s">
         <v>70</v>
@@ -3648,40 +3658,36 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>600</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="39" spans="1:12">
+      <c r="A39" s="54"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
-      <c r="I39" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I39" s="57"/>
       <c r="J39" s="57"/>
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="54"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="29">
+        <v>813</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F40" s="57"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
@@ -3690,50 +3696,44 @@
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="29">
-        <v>813</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+    <row r="41" spans="1:12">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="58">
+        <v>222</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="16">
       <c r="A43" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>70</v>
@@ -3744,14 +3744,16 @@
       <c r="E43" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="53" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="58">
-        <v>675</v>
+      <c r="A44" s="39">
+        <v>767</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>70</v>
@@ -3763,26 +3765,6 @@
         <v>70</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="16">
-      <c r="A45" s="39">
-        <v>767</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="53" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3801,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:F22"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3853,34 +3835,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4284,41 +4266,37 @@
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>832</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="28"/>
+        <v>833</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="39">
-        <v>833</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -4340,26 +4318,38 @@
       <c r="K24" s="36"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>313</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>70</v>
@@ -4382,10 +4372,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>70</v>
@@ -4408,60 +4398,60 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>712</v>
+        <v>318</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>70</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="34"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>318</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>69</v>
+        <v>316</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>114</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="L29" s="34"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="29">
-        <v>316</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>114</v>
+        <v>317</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>70</v>
@@ -4480,40 +4470,38 @@
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="34"/>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="29">
-        <v>317</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="54"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="28"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="A32" s="29">
+        <v>250</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -4522,12 +4510,12 @@
       <c r="K32" s="36"/>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="56" t="s">
         <v>70</v>
@@ -4538,7 +4526,9 @@
       <c r="E33" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -4548,10 +4538,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="56" t="s">
         <v>70</v>
@@ -4574,10 +4564,10 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" s="56" t="s">
         <v>70</v>
@@ -4599,24 +4589,12 @@
       <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="29">
-        <v>373</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A36" s="54"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -4624,26 +4602,40 @@
       <c r="K36" s="36"/>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="28"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="A37" s="29">
+        <v>601</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+    </row>
+    <row r="38" spans="1:12" ht="16">
       <c r="A38" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="57" t="s">
         <v>70</v>
@@ -4666,40 +4658,36 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>600</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="39" spans="1:12">
+      <c r="A39" s="54"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
-      <c r="I39" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I39" s="57"/>
       <c r="J39" s="57"/>
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="54"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="29">
+        <v>813</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="F40" s="57"/>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
@@ -4710,21 +4698,21 @@
     </row>
     <row r="41" spans="1:12" ht="16">
       <c r="A41" s="29">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="D41" s="57"/>
       <c r="E41" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="57" t="s">
+        <v>70</v>
+      </c>
       <c r="G41" s="57"/>
       <c r="H41" s="57"/>
       <c r="I41" s="57"/>
@@ -4732,50 +4720,44 @@
       <c r="K41" s="57"/>
       <c r="L41" s="57"/>
     </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="29">
-        <v>814</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
+    <row r="42" spans="1:12">
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+    </row>
+    <row r="43" spans="1:12" ht="16">
+      <c r="A43" s="58">
+        <v>222</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="16">
       <c r="A44" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="53" t="s">
         <v>70</v>
@@ -4786,14 +4768,16 @@
       <c r="E44" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="53" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="16">
-      <c r="A45" s="58">
-        <v>675</v>
+      <c r="A45" s="39">
+        <v>767</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="53" t="s">
         <v>70</v>
@@ -4805,26 +4789,6 @@
         <v>70</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="16">
-      <c r="A46" s="39">
-        <v>767</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="53" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4895,34 +4859,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5225,34 +5189,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5555,34 +5519,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5885,34 +5849,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6213,34 +6177,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E59017-5882-0B48-A762-0FEB6A35FF3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7968154F-CA2D-914B-8680-B0B318E3EC53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63860" yWindow="6400" windowWidth="38400" windowHeight="20840" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2080" windowWidth="38400" windowHeight="20840" tabRatio="500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <sheet name="IM VI nonaccsensit passiv corpo" sheetId="8" r:id="rId8"/>
     <sheet name="IM VII full rights passive" sheetId="9" r:id="rId9"/>
     <sheet name="IM Mask VIII RO rights" sheetId="11" r:id="rId10"/>
+    <sheet name="IM IX" sheetId="12" r:id="rId11"/>
+    <sheet name="IM X" sheetId="13" r:id="rId12"/>
+    <sheet name="IM XI" sheetId="14" r:id="rId13"/>
+    <sheet name="IM XII" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Operation list'!$A$1:$W$2</definedName>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="127">
   <si>
     <t>Author:</t>
   </si>
@@ -396,6 +400,39 @@
   </si>
   <si>
     <t>Init Mask VIII RO rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask IX in OLB created user non-sensitive operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask X in OLB created user – passive account sensitive operations </t>
+  </si>
+  <si>
+    <t>Request to set paper statements on or off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init Mask XI in OLB created user – active account sensitive operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Init mask XII with rights for user administration in OLB </t>
+  </si>
+  <si>
+    <t>View user</t>
+  </si>
+  <si>
+    <t>Request to create new user</t>
+  </si>
+  <si>
+    <t>Request to delete user</t>
+  </si>
+  <si>
+    <t>Request to edit user</t>
+  </si>
+  <si>
+    <t>Request to block/activate user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request to reset user password </t>
   </si>
 </sst>
 </file>
@@ -406,7 +443,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -438,6 +475,13 @@
     <font>
       <sz val="11"/>
       <name val="Dialog"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -830,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1002,11 +1046,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1020,38 +1094,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1062,18 +1121,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,51 +1528,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="78">
         <v>42895</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1534,472 +1588,520 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="64"/>
+      <c r="I7" s="74"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="66"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="68"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="68"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="68"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="72"/>
+      <c r="I20" s="69"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="69"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="63"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="75"/>
+      <c r="I27" s="65"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="75" t="s">
+      <c r="H28" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="75"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="75"/>
+      <c r="I29" s="65"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="75" t="s">
+      <c r="H30" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="75"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="69"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="69"/>
+      <c r="I32" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2010,54 +2112,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2068,7 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F133CF2-8B91-7449-B1B9-76EE1433B699}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -2114,34 +2168,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2551,6 +2605,2378 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA9C12D-950D-B940-BECE-0AB12582463A}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="27.1640625" style="21" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="39">
+        <v>299</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="32">
+      <c r="A6" s="39">
+        <v>880</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>881</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="32">
+      <c r="A8" s="39">
+        <v>882</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="39"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="A10" s="29">
+        <v>601</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="29">
+        <v>600</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="29">
+        <v>813</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FEBA05-23EF-DD4F-B896-1D99B0AB2DCE}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="52.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="48">
+        <v>200</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="39">
+        <v>204</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>202</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="39">
+        <v>36</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="29">
+        <v>229</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="29">
+        <v>224</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="29">
+        <v>252</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="29">
+        <v>713</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="39">
+        <v>830</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" ht="14" customHeight="1">
+      <c r="A17" s="39">
+        <v>831</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39">
+        <v>832</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="39">
+        <v>833</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29">
+        <v>313</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>316</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>317</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29">
+        <v>250</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29">
+        <v>371</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="29">
+        <v>372</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="29">
+        <v>373</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="54"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+    </row>
+    <row r="31" spans="1:12" ht="16">
+      <c r="A31" s="58">
+        <v>222</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="1:12" s="22" customFormat="1" ht="16">
+      <c r="A32" s="58">
+        <v>675</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" s="22" customFormat="1" ht="16">
+      <c r="A33" s="39">
+        <v>767</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47BC158-BDC2-184F-8A1E-75EA70953D80}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="52.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="48">
+        <v>200</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="39">
+        <v>204</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>202</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="39">
+        <v>36</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="29">
+        <v>229</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="29">
+        <v>224</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="29">
+        <v>252</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="29">
+        <v>713</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="39">
+        <v>830</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12" ht="14" customHeight="1">
+      <c r="A17" s="39">
+        <v>832</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39">
+        <v>833</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="29">
+        <v>313</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29">
+        <v>321</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29">
+        <v>712</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>316</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>317</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="54"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="A27" s="29">
+        <v>250</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="29">
+        <v>371</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="29">
+        <v>372</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29">
+        <v>373</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="16">
+      <c r="A32" s="58">
+        <v>222</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="1:6" ht="16">
+      <c r="A33" s="58">
+        <v>675</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16">
+      <c r="A34" s="39">
+        <v>767</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC163F8-9E85-1245-ADBA-568D9023566B}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="40.33203125" style="21" customWidth="1"/>
+    <col min="3" max="10" width="8.83203125" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="32">
+      <c r="A1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32">
+      <c r="A2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
+      <c r="A3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+    </row>
+    <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="39">
+        <v>972</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="39">
+        <v>69</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="39">
+        <v>79</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="39">
+        <v>78</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="39">
+        <v>74</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="29">
+        <v>63</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="39"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="29"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="29"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="29"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="39"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="39"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="14" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" ht="14" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="30"/>
+    </row>
+    <row r="20" spans="1:12" ht="14" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="14" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="29"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="29"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="29"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="29"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="54"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="29"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="29"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="29"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="58"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="58"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="39"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2588,81 +5014,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="83" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="83" t="s">
+      <c r="V1" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="83" t="s">
+      <c r="W1" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="83" t="s">
+      <c r="X1" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Y1" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="83" t="s">
+      <c r="Z1" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -2690,12 +5116,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -2755,6 +5181,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2763,16 +5199,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2833,34 +5259,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3835,34 +6261,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4859,34 +7285,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5189,34 +7615,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5519,34 +7945,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5849,34 +8275,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6177,34 +8603,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7968154F-CA2D-914B-8680-B0B318E3EC53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304FF6F0-1E37-7743-841E-FF4D2680FB90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="2080" windowWidth="38400" windowHeight="20840" tabRatio="500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="32240" windowHeight="21240" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="125">
   <si>
     <t>Author:</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Single Payments</t>
   </si>
   <si>
-    <t>Request for bill payment - Payveris</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
   </si>
   <si>
     <t>Init Mask VII full rights  - only passive access</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Loan payment</t>
@@ -1049,6 +1043,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1121,13 +1122,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1528,51 +1522,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="77"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="81">
         <v>42895</v>
       </c>
-      <c r="I4" s="78"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1588,469 +1582,469 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="76"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="71"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="69"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="69"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="69"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="70"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="63" t="s">
+      <c r="H24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="63"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="63"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="63"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="65" t="s">
+      <c r="H27" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="65"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="65"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="65"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="65"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="63" t="s">
+      <c r="H31" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -2137,10 +2131,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2153,7 +2147,7 @@
     </row>
     <row r="2" spans="1:12" ht="32">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>8</v>
@@ -2168,34 +2162,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2226,16 +2220,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -2250,16 +2244,16 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -2274,16 +2268,16 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -2298,16 +2292,16 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -2336,16 +2330,16 @@
         <v>200</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -2360,16 +2354,16 @@
         <v>204</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -2384,14 +2378,14 @@
         <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -2406,16 +2400,16 @@
         <v>229</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -2430,16 +2424,16 @@
         <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -2468,16 +2462,16 @@
         <v>252</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
@@ -2506,16 +2500,16 @@
         <v>713</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
@@ -2544,16 +2538,16 @@
         <v>813</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
@@ -2582,16 +2576,16 @@
         <v>222</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="53"/>
     </row>
@@ -2612,7 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA9C12D-950D-B940-BECE-0AB12582463A}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
@@ -2625,49 +2619,49 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32">
       <c r="A1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2698,16 +2692,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -2722,19 +2716,19 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -2748,19 +2742,19 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -2774,19 +2768,19 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -2814,22 +2808,22 @@
         <v>601</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
@@ -2840,16 +2834,16 @@
         <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
@@ -2878,16 +2872,16 @@
         <v>813</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -2931,49 +2925,49 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32">
       <c r="A1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3004,16 +2998,16 @@
         <v>200</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
@@ -3028,16 +3022,16 @@
         <v>204</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
@@ -3052,16 +3046,16 @@
         <v>202</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -3075,17 +3069,17 @@
       <c r="A8" s="39">
         <v>36</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>118</v>
+      <c r="B8" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -3100,16 +3094,16 @@
         <v>229</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -3124,16 +3118,16 @@
         <v>224</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -3162,16 +3156,16 @@
         <v>252</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -3200,16 +3194,16 @@
         <v>713</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -3238,16 +3232,16 @@
         <v>830</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
@@ -3262,16 +3256,16 @@
         <v>831</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="28"/>
@@ -3286,16 +3280,16 @@
         <v>832</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -3310,16 +3304,16 @@
         <v>833</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="28"/>
@@ -3362,16 +3356,16 @@
         <v>313</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -3386,16 +3380,16 @@
         <v>316</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -3410,16 +3404,16 @@
         <v>317</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="28"/>
@@ -3448,16 +3442,16 @@
         <v>250</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -3472,16 +3466,16 @@
         <v>371</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -3496,16 +3490,16 @@
         <v>372</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -3520,16 +3514,16 @@
         <v>373</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -3558,16 +3552,16 @@
         <v>222</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="53"/>
     </row>
@@ -3576,16 +3570,16 @@
         <v>675</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="53"/>
       <c r="K32"/>
@@ -3596,16 +3590,16 @@
         <v>767</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="53"/>
       <c r="K33"/>
@@ -3632,7 +3626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47BC158-BDC2-184F-8A1E-75EA70953D80}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -3645,49 +3639,49 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32">
       <c r="A1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>119</v>
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3718,16 +3712,16 @@
         <v>200</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
@@ -3742,16 +3736,16 @@
         <v>204</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
@@ -3766,16 +3760,16 @@
         <v>202</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -3789,43 +3783,43 @@
       <c r="A8" s="39">
         <v>36</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>118</v>
+      <c r="B8" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="16">
       <c r="A9" s="29">
         <v>229</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -3840,16 +3834,16 @@
         <v>224</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -3878,16 +3872,16 @@
         <v>252</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -3916,16 +3910,16 @@
         <v>713</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -3954,19 +3948,19 @@
         <v>830</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
@@ -3980,19 +3974,19 @@
         <v>832</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="30"/>
@@ -4006,19 +4000,19 @@
         <v>833</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="30"/>
@@ -4060,19 +4054,19 @@
         <v>313</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
@@ -4086,19 +4080,19 @@
         <v>321</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -4112,19 +4106,19 @@
         <v>712</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
@@ -4138,19 +4132,19 @@
         <v>316</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
@@ -4164,19 +4158,19 @@
         <v>317</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
@@ -4204,16 +4198,16 @@
         <v>250</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -4228,19 +4222,19 @@
         <v>371</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -4254,19 +4248,19 @@
         <v>372</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -4280,19 +4274,19 @@
         <v>373</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -4320,16 +4314,16 @@
         <v>222</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="53"/>
     </row>
@@ -4338,19 +4332,19 @@
         <v>675</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16">
@@ -4358,19 +4352,19 @@
         <v>767</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4407,49 +4401,49 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32">
       <c r="A1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="86" t="s">
-        <v>120</v>
+        <v>74</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4480,14 +4474,14 @@
         <v>972</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
@@ -4502,17 +4496,17 @@
         <v>69</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
@@ -4526,17 +4520,17 @@
         <v>79</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
@@ -4550,41 +4544,41 @@
         <v>78</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="16">
       <c r="A9" s="39">
         <v>74</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
@@ -4598,17 +4592,17 @@
         <v>63</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
@@ -5014,81 +5008,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="81" t="s">
+      <c r="L1" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="79" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="V1" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="W1" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="X1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="79" t="s">
+      <c r="Y1" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="Z1" s="82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -5116,12 +5110,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5134,30 +5128,30 @@
         <v>317</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="31">
         <v>1</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="28">
         <v>3</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
@@ -5170,13 +5164,13 @@
       <c r="V3" s="36"/>
       <c r="W3" s="34"/>
       <c r="X3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Z3" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5207,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5228,10 +5222,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -5244,7 +5238,7 @@
     </row>
     <row r="2" spans="1:12" ht="16">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>1</v>
@@ -5259,34 +5253,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5317,16 +5311,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5341,19 +5335,19 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -5367,19 +5361,19 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -5393,19 +5387,19 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -5433,16 +5427,16 @@
         <v>200</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -5457,16 +5451,16 @@
         <v>204</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -5481,14 +5475,14 @@
         <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -5503,16 +5497,16 @@
         <v>229</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -5527,16 +5521,16 @@
         <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -5565,16 +5559,16 @@
         <v>252</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
@@ -5603,16 +5597,16 @@
         <v>713</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
@@ -5641,19 +5635,19 @@
         <v>830</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -5667,19 +5661,19 @@
         <v>831</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -5693,19 +5687,19 @@
         <v>833</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
@@ -5747,19 +5741,19 @@
         <v>313</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
@@ -5773,19 +5767,19 @@
         <v>321</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
@@ -5799,19 +5793,19 @@
         <v>712</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
@@ -5825,19 +5819,19 @@
         <v>316</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -5848,22 +5842,22 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
@@ -5873,37 +5867,35 @@
       <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="29">
-        <v>317</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="54"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="28"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="A31" s="29">
+        <v>250</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
@@ -5912,23 +5904,25 @@
       <c r="K31" s="36"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -5938,22 +5932,22 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -5964,22 +5958,22 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -5989,24 +5983,12 @@
       <c r="L34" s="28"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="29">
-        <v>373</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A35" s="54"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -6014,82 +5996,92 @@
       <c r="K35" s="36"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="54"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="28"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="A36" s="29">
+        <v>601</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+    </row>
+    <row r="37" spans="1:12" ht="16">
       <c r="A37" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
       <c r="I37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>600</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="54"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
-      <c r="I38" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I38" s="57"/>
       <c r="J38" s="57"/>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="54"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
+    <row r="39" spans="1:12" ht="16">
+      <c r="A39" s="29">
+        <v>813</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="F39" s="57"/>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
@@ -6098,100 +6090,76 @@
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="29">
-        <v>813</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+    <row r="40" spans="1:12">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+    </row>
+    <row r="41" spans="1:12" ht="16">
+      <c r="A41" s="58">
+        <v>222</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="16">
       <c r="A42" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="53"/>
+        <v>69</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="58">
-        <v>675</v>
+      <c r="A43" s="39">
+        <v>767</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="39">
-        <v>767</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6209,10 +6177,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6230,10 +6198,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -6246,7 +6214,7 @@
     </row>
     <row r="2" spans="1:12" ht="16">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>2</v>
@@ -6261,34 +6229,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6319,16 +6287,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -6343,19 +6311,19 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -6369,19 +6337,19 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -6395,19 +6363,19 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -6435,16 +6403,16 @@
         <v>200</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -6459,16 +6427,16 @@
         <v>204</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -6483,14 +6451,14 @@
         <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -6505,16 +6473,16 @@
         <v>229</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -6529,16 +6497,16 @@
         <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -6567,16 +6535,16 @@
         <v>252</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
@@ -6605,16 +6573,16 @@
         <v>713</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
@@ -6643,19 +6611,19 @@
         <v>830</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -6669,19 +6637,19 @@
         <v>831</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
@@ -6695,19 +6663,19 @@
         <v>833</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
@@ -6749,19 +6717,19 @@
         <v>313</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
@@ -6775,19 +6743,19 @@
         <v>321</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
@@ -6801,19 +6769,19 @@
         <v>712</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
@@ -6824,86 +6792,86 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>318</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>69</v>
+        <v>316</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" s="34"/>
+        <v>69</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="29">
-        <v>316</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>114</v>
+        <v>317</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="34"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="29">
-        <v>317</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="54"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="28"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="A31" s="29">
+        <v>250</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
@@ -6912,23 +6880,25 @@
       <c r="K31" s="36"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
@@ -6938,22 +6908,22 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -6964,22 +6934,22 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -6989,24 +6959,12 @@
       <c r="L34" s="28"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="29">
-        <v>373</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A35" s="54"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -7014,82 +6972,92 @@
       <c r="K35" s="36"/>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="54"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="28"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="A36" s="29">
+        <v>601</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+    </row>
+    <row r="37" spans="1:12" ht="16">
       <c r="A37" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
       <c r="I37" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>600</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>70</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="54"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
-      <c r="I38" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I38" s="57"/>
       <c r="J38" s="57"/>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="54"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
+    <row r="39" spans="1:12" ht="16">
+      <c r="A39" s="29">
+        <v>813</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="F39" s="57"/>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
@@ -7100,21 +7068,21 @@
     </row>
     <row r="40" spans="1:12" ht="16">
       <c r="A40" s="29">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D40" s="57"/>
       <c r="E40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="57"/>
+        <v>69</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
       <c r="I40" s="57"/>
@@ -7122,100 +7090,76 @@
       <c r="K40" s="57"/>
       <c r="L40" s="57"/>
     </row>
-    <row r="41" spans="1:12" ht="16">
-      <c r="A41" s="29">
-        <v>814</v>
-      </c>
-      <c r="B41" s="29" t="s">
+    <row r="41" spans="1:12">
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="58">
+        <v>222</v>
+      </c>
+      <c r="B42" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
+      <c r="C42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:12" ht="16">
       <c r="A43" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B43" s="52" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="53"/>
+        <v>69</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="58">
-        <v>675</v>
+      <c r="A44" s="39">
+        <v>767</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="16">
-      <c r="A45" s="39">
-        <v>767</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -7254,10 +7198,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7270,7 +7214,7 @@
     </row>
     <row r="2" spans="1:12" ht="16">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>3</v>
@@ -7285,34 +7229,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7343,16 +7287,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -7367,19 +7311,19 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -7393,19 +7337,19 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -7419,19 +7363,19 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -7459,24 +7403,24 @@
         <v>601</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
@@ -7487,24 +7431,24 @@
         <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
@@ -7529,16 +7473,16 @@
         <v>813</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -7584,10 +7528,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7600,7 +7544,7 @@
     </row>
     <row r="2" spans="1:12" ht="16">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>4</v>
@@ -7615,34 +7559,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7673,16 +7617,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -7697,19 +7641,19 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -7723,19 +7667,19 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -7749,19 +7693,19 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -7789,24 +7733,24 @@
         <v>601</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
@@ -7817,24 +7761,24 @@
         <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
@@ -7859,16 +7803,16 @@
         <v>813</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -7895,7 +7839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -7914,10 +7858,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7930,7 +7874,7 @@
     </row>
     <row r="2" spans="1:12" ht="16">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>5</v>
@@ -7945,34 +7889,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8003,16 +7947,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -8027,19 +7971,19 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -8053,19 +7997,19 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -8079,19 +8023,19 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -8119,24 +8063,24 @@
         <v>601</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
@@ -8147,24 +8091,24 @@
         <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
@@ -8189,16 +8133,16 @@
         <v>813</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -8244,10 +8188,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -8260,7 +8204,7 @@
     </row>
     <row r="2" spans="1:12" ht="16">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>6</v>
@@ -8275,34 +8219,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8333,16 +8277,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -8357,19 +8301,19 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -8383,19 +8327,19 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -8409,19 +8353,19 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -8449,24 +8393,24 @@
         <v>601</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="57"/>
       <c r="K10" s="57"/>
@@ -8477,19 +8421,19 @@
         <v>600</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
@@ -8517,16 +8461,16 @@
         <v>813</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
@@ -8551,10 +8495,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8572,10 +8516,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16">
       <c r="A1" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -8588,7 +8532,7 @@
     </row>
     <row r="2" spans="1:12" ht="16">
       <c r="A2" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="38">
         <v>7</v>
@@ -8603,34 +8547,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8661,16 +8605,16 @@
         <v>299</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -8685,19 +8629,19 @@
         <v>880</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -8711,19 +8655,19 @@
         <v>881</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -8737,19 +8681,19 @@
         <v>882</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -8777,16 +8721,16 @@
         <v>200</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
@@ -8801,16 +8745,16 @@
         <v>204</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -8825,14 +8769,14 @@
         <v>202</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -8847,16 +8791,16 @@
         <v>229</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -8871,16 +8815,16 @@
         <v>224</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -8909,16 +8853,16 @@
         <v>252</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
@@ -8947,16 +8891,16 @@
         <v>713</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
@@ -8985,16 +8929,16 @@
         <v>830</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
@@ -9009,16 +8953,16 @@
         <v>831</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
@@ -9030,41 +8974,37 @@
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1">
       <c r="A22" s="39">
-        <v>832</v>
-      </c>
-      <c r="B22" s="44" t="s">
+        <v>833</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="28"/>
+      <c r="C22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
+      <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1">
-      <c r="A23" s="39">
-        <v>833</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>70</v>
-      </c>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -9086,37 +9026,49 @@
       <c r="K24" s="36"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" ht="14" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="30"/>
+    <row r="25" spans="1:12">
+      <c r="A25" s="29">
+        <v>313</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>313</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>93</v>
+        <v>316</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>112</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="34"/>
+        <v>69</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9128,20 +9080,20 @@
       <c r="A27" s="29">
         <v>316</v>
       </c>
-      <c r="B27" s="59" t="s">
-        <v>114</v>
+      <c r="B27" s="60" t="s">
+        <v>112</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
@@ -9152,14 +9104,20 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>318</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
+        <v>317</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -9169,61 +9127,59 @@
       <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29">
-        <v>316</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="A29" s="54"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="29">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
+        <v>95</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="54"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="29">
+        <v>371</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
@@ -9232,21 +9188,21 @@
       <c r="K31" s="36"/>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
@@ -9258,19 +9214,19 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -9281,21 +9237,11 @@
       <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="29">
-        <v>372</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>70</v>
-      </c>
+      <c r="A34" s="54"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -9304,91 +9250,91 @@
       <c r="K34" s="36"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="29">
-        <v>373</v>
-      </c>
-      <c r="B35" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="28"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="54"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="28"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
-      <c r="A37" s="29">
-        <v>601</v>
-      </c>
-      <c r="B37" s="29" t="s">
+      <c r="C35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+    </row>
+    <row r="36" spans="1:12" ht="16">
+      <c r="A36" s="29">
+        <v>600</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="C36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="54"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="57" t="s">
-        <v>70</v>
-      </c>
+      <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
     <row r="38" spans="1:12" ht="16">
       <c r="A38" s="29">
-        <v>600</v>
+        <v>813</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>101</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
       <c r="I38" s="57"/>
@@ -9397,110 +9343,72 @@
       <c r="L38" s="57"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="54"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="29"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="29">
-        <v>813</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="A40" s="58">
+        <v>222</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="1:12" ht="16">
+      <c r="A41" s="58">
+        <v>675</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="58">
-        <v>222</v>
+      <c r="A42" s="39">
+        <v>767</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F42" s="53"/>
-    </row>
-    <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="58">
-        <v>675</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="53"/>
-    </row>
-    <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="39">
-        <v>767</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="F44" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304FF6F0-1E37-7743-841E-FF4D2680FB90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE3483F-394A-A246-989C-8D4F1B7D8425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="32240" windowHeight="21240" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="460" windowWidth="32240" windowHeight="21240" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="125">
   <si>
     <t>Author:</t>
   </si>
@@ -1050,38 +1050,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1095,23 +1068,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1120,6 +1108,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,51 +1522,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="66">
         <v>42895</v>
       </c>
-      <c r="I4" s="81"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1582,228 +1582,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="75"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="75"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="75"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="75"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1816,286 +1816,238 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="72"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="73"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="66"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="66"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="68"/>
+      <c r="I28" s="79"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="68"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="66"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="66"/>
+      <c r="I32" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2106,6 +2058,54 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2162,34 +2162,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2634,34 +2634,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2940,34 +2940,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3654,34 +3654,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4416,34 +4416,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5008,13 +5008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="84" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="85" t="s">
@@ -5026,63 +5026,63 @@
       <c r="F1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="82" t="s">
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="82" t="s">
+      <c r="V1" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="82" t="s">
+      <c r="W1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="82" t="s">
+      <c r="X1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="82" t="s">
+      <c r="Y1" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="82" t="s">
+      <c r="Z1" s="87" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="85"/>
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -5110,12 +5110,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5175,16 +5175,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5193,6 +5183,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5201,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5253,34 +5253,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5480,7 +5480,9 @@
       <c r="C12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="E12" s="53" t="s">
         <v>69</v>
       </c>
@@ -5656,12 +5658,12 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="21" spans="1:12" ht="14" customHeight="1">
       <c r="A21" s="39">
-        <v>831</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>89</v>
+        <v>833</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>91</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>69</v>
@@ -5669,38 +5671,26 @@
       <c r="D21" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
+      <c r="E21" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1">
-      <c r="A22" s="39">
-        <v>833</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -5722,26 +5712,38 @@
       <c r="K23" s="36"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="30"/>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>313</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>69</v>
@@ -5764,10 +5766,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>69</v>
@@ -5790,10 +5792,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>712</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>94</v>
+        <v>316</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>112</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>69</v>
@@ -5816,10 +5818,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>316</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>112</v>
+        <v>317</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>69</v>
@@ -5838,40 +5840,38 @@
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="34"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29">
-        <v>317</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="54"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="28"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="A30" s="29">
+        <v>250</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -5880,12 +5880,12 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>69</v>
@@ -5896,7 +5896,9 @@
       <c r="E31" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -5906,10 +5908,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>69</v>
@@ -5932,10 +5934,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="56" t="s">
         <v>69</v>
@@ -5957,24 +5959,12 @@
       <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="29">
-        <v>373</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="A34" s="54"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -5982,26 +5972,40 @@
       <c r="K34" s="36"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="54"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="28"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="A35" s="29">
+        <v>601</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+    </row>
+    <row r="36" spans="1:12" ht="16">
       <c r="A36" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>69</v>
@@ -6024,40 +6028,36 @@
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12" ht="16">
-      <c r="A37" s="29">
-        <v>600</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>69</v>
-      </c>
+    <row r="37" spans="1:12">
+      <c r="A37" s="54"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="57" t="s">
-        <v>69</v>
-      </c>
+      <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="54"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
+    <row r="38" spans="1:12" ht="16">
+      <c r="A38" s="29">
+        <v>813</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
@@ -6066,50 +6066,44 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>813</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
+    <row r="39" spans="1:12">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+    </row>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="58">
+        <v>222</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="16">
       <c r="A41" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>69</v>
@@ -6120,14 +6114,16 @@
       <c r="E41" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="53" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="58">
-        <v>675</v>
+      <c r="A42" s="39">
+        <v>767</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>69</v>
@@ -6139,26 +6135,6 @@
         <v>69</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="39">
-        <v>767</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="53" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6177,10 +6153,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6229,34 +6205,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6456,7 +6432,9 @@
       <c r="C12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="E12" s="53" t="s">
         <v>69</v>
       </c>
@@ -6632,12 +6610,12 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="16">
+    <row r="21" spans="1:12" ht="14" customHeight="1">
       <c r="A21" s="39">
-        <v>831</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>89</v>
+        <v>833</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>91</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>69</v>
@@ -6645,38 +6623,26 @@
       <c r="D21" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
+      <c r="E21" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1">
-      <c r="A22" s="39">
-        <v>833</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -6698,26 +6664,38 @@
       <c r="K23" s="36"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" ht="14" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="30"/>
+    <row r="24" spans="1:12">
+      <c r="A24" s="29">
+        <v>313</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>69</v>
@@ -6740,10 +6718,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>321</v>
+        <v>712</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>69</v>
@@ -6766,10 +6744,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>712</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>94</v>
+        <v>316</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>112</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>69</v>
@@ -6792,10 +6770,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>316</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>112</v>
+        <v>317</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>69</v>
@@ -6814,40 +6792,38 @@
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="34"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="29">
-        <v>317</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="54"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="28"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="A30" s="29">
+        <v>250</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -6856,12 +6832,12 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12">
       <c r="A31" s="29">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>69</v>
@@ -6872,7 +6848,9 @@
       <c r="E31" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -6882,10 +6860,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>69</v>
@@ -6908,10 +6886,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="56" t="s">
         <v>69</v>
@@ -6933,24 +6911,12 @@
       <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="29">
-        <v>373</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="A34" s="54"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -6958,26 +6924,40 @@
       <c r="K34" s="36"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="54"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="28"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="A35" s="29">
+        <v>601</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+    </row>
+    <row r="36" spans="1:12" ht="16">
       <c r="A36" s="29">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>69</v>
@@ -7000,40 +6980,36 @@
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12" ht="16">
-      <c r="A37" s="29">
-        <v>600</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>69</v>
-      </c>
+    <row r="37" spans="1:12">
+      <c r="A37" s="54"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="57" t="s">
-        <v>69</v>
-      </c>
+      <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="54"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
+    <row r="38" spans="1:12" ht="16">
+      <c r="A38" s="29">
+        <v>813</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
@@ -7044,21 +7020,21 @@
     </row>
     <row r="39" spans="1:12" ht="16">
       <c r="A39" s="29">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="57" t="s">
-        <v>69</v>
-      </c>
+      <c r="D39" s="57"/>
       <c r="E39" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="57"/>
+      <c r="F39" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
@@ -7066,50 +7042,44 @@
       <c r="K39" s="57"/>
       <c r="L39" s="57"/>
     </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="29">
-        <v>814</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
+    <row r="40" spans="1:12">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+    </row>
+    <row r="41" spans="1:12" ht="16">
+      <c r="A41" s="58">
+        <v>222</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="1:12" ht="16">
       <c r="A42" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>69</v>
@@ -7120,14 +7090,16 @@
       <c r="E42" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="53" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="58">
-        <v>675</v>
+      <c r="A43" s="39">
+        <v>767</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C43" s="53" t="s">
         <v>69</v>
@@ -7139,26 +7111,6 @@
         <v>69</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="39">
-        <v>767</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="53" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7229,34 +7181,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7559,34 +7511,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7839,7 +7791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -7889,34 +7841,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8219,34 +8171,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8497,8 +8449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8547,34 +8499,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8774,7 +8726,9 @@
       <c r="C12" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="E12" s="53" t="s">
         <v>69</v>
       </c>

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE3483F-394A-A246-989C-8D4F1B7D8425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9A5E9D-BB4E-EE40-94F5-4B1A2001F590}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="460" windowWidth="32240" windowHeight="21240" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="32240" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="125">
   <si>
     <t>Author:</t>
   </si>
@@ -1050,11 +1050,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1068,38 +1095,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1108,18 +1120,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,51 +1522,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="65"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="81">
         <v>42895</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1582,228 +1582,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="70"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1816,238 +1816,286 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="76"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="76"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="71"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="73"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="73"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="73"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="79"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="79" t="s">
+      <c r="H28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="79"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="79"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="79" t="s">
+      <c r="H30" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="79"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="73" t="s">
+      <c r="H31" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="73"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="73"/>
+      <c r="I32" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2058,54 +2106,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2162,34 +2162,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2634,34 +2634,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2940,34 +2940,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3654,34 +3654,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4416,34 +4416,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5008,13 +5008,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="88" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="85" t="s">
@@ -5026,63 +5026,63 @@
       <c r="F1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="87" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="87" t="s">
+      <c r="V1" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="87" t="s">
+      <c r="W1" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="87" t="s">
+      <c r="X1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="87" t="s">
+      <c r="Y1" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="87" t="s">
+      <c r="Z1" s="82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="85"/>
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -5110,12 +5110,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5175,6 +5175,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5183,16 +5193,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5201,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5253,34 +5253,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6137,6 +6137,148 @@
       <c r="F42" s="53" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="44" spans="1:12" ht="16">
+      <c r="A44" s="39">
+        <v>972</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+    </row>
+    <row r="45" spans="1:12" ht="16">
+      <c r="A45" s="39">
+        <v>69</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="1:12" ht="16">
+      <c r="A46" s="39">
+        <v>79</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+    </row>
+    <row r="47" spans="1:12" ht="16">
+      <c r="A47" s="39">
+        <v>78</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+    </row>
+    <row r="48" spans="1:12" ht="16">
+      <c r="A48" s="39">
+        <v>74</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+    </row>
+    <row r="49" spans="1:12" ht="16">
+      <c r="A49" s="29">
+        <v>63</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6205,34 +6347,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7181,34 +7323,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7511,34 +7653,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7841,34 +7983,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8171,34 +8313,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8449,7 +8591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -8499,34 +8641,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9A5E9D-BB4E-EE40-94F5-4B1A2001F590}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D9BB5-8AAC-2C4C-A75F-BAC56815C7BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="460" windowWidth="32240" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38020" windowHeight="21840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="124">
   <si>
     <t>Author:</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>Documents related to clients</t>
-  </si>
-  <si>
-    <t>Document disclaimer</t>
   </si>
   <si>
     <t>View debit cards</t>
@@ -1050,38 +1047,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1095,23 +1065,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1120,6 +1105,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,51 +1519,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="66">
         <v>42895</v>
       </c>
-      <c r="I4" s="81"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1582,228 +1579,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="75"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="75"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="75"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="75"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1816,286 +1813,238 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="72"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="73"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="66"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="66"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="68"/>
+      <c r="I28" s="79"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="68"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="66"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="66"/>
+      <c r="I32" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2106,6 +2055,54 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2134,7 +2131,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2162,34 +2159,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2576,7 +2573,7 @@
         <v>222</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>69</v>
@@ -2622,7 +2619,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -2634,34 +2631,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2928,7 +2925,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -2940,34 +2937,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>69</v>
@@ -3380,7 +3377,7 @@
         <v>316</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>69</v>
@@ -3552,7 +3549,7 @@
         <v>222</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="53" t="s">
         <v>69</v>
@@ -3570,7 +3567,7 @@
         <v>675</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>69</v>
@@ -3590,7 +3587,7 @@
         <v>767</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>69</v>
@@ -3642,7 +3639,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -3654,34 +3651,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3784,7 +3781,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>69</v>
@@ -4132,7 +4129,7 @@
         <v>316</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>69</v>
@@ -4314,7 +4311,7 @@
         <v>222</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="53" t="s">
         <v>69</v>
@@ -4332,7 +4329,7 @@
         <v>675</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="53" t="s">
         <v>69</v>
@@ -4352,7 +4349,7 @@
         <v>767</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="53" t="s">
         <v>69</v>
@@ -4404,7 +4401,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="32">
@@ -4416,34 +4413,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>972</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>69</v>
@@ -4496,7 +4493,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>69</v>
@@ -4520,7 +4517,7 @@
         <v>79</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>69</v>
@@ -4544,7 +4541,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>69</v>
@@ -4568,7 +4565,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>69</v>
@@ -4592,7 +4589,7 @@
         <v>63</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>69</v>
@@ -5008,13 +5005,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="84" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="85" t="s">
@@ -5026,63 +5023,63 @@
       <c r="F1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="82" t="s">
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="82" t="s">
+      <c r="V1" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="82" t="s">
+      <c r="W1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="82" t="s">
+      <c r="X1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="82" t="s">
+      <c r="Y1" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="82" t="s">
+      <c r="Z1" s="87" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="85"/>
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -5110,12 +5107,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5175,16 +5172,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5193,6 +5180,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5253,34 +5250,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5795,7 +5792,7 @@
         <v>316</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>69</v>
@@ -6085,7 +6082,7 @@
         <v>222</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>69</v>
@@ -6103,7 +6100,7 @@
         <v>675</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>69</v>
@@ -6123,7 +6120,7 @@
         <v>767</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>69</v>
@@ -6143,7 +6140,7 @@
         <v>972</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="50" t="s">
         <v>69</v>
@@ -6165,7 +6162,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="53" t="s">
         <v>69</v>
@@ -6189,7 +6186,7 @@
         <v>79</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>69</v>
@@ -6213,7 +6210,7 @@
         <v>78</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>69</v>
@@ -6237,7 +6234,7 @@
         <v>74</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="53" t="s">
         <v>69</v>
@@ -6261,7 +6258,7 @@
         <v>63</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="53" t="s">
         <v>69</v>
@@ -6295,10 +6292,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6319,7 +6316,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -6347,34 +6344,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6889,7 +6886,7 @@
         <v>316</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>69</v>
@@ -7160,47 +7157,41 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12" ht="16">
-      <c r="A39" s="29">
-        <v>814</v>
-      </c>
-      <c r="B39" s="29" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+    </row>
+    <row r="40" spans="1:12" ht="16">
+      <c r="A40" s="58">
+        <v>222</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
+      <c r="C40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:12" ht="16">
       <c r="A41" s="58">
-        <v>222</v>
+        <v>675</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>103</v>
@@ -7214,11 +7205,13 @@
       <c r="E41" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="53" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="58">
-        <v>675</v>
+      <c r="A42" s="39">
+        <v>767</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>104</v>
@@ -7233,26 +7226,6 @@
         <v>69</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="16">
-      <c r="A43" s="39">
-        <v>767</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="53" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7295,7 +7268,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7323,34 +7296,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7625,7 +7598,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7653,34 +7626,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7955,7 +7928,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7983,34 +7956,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8285,7 +8258,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -8313,34 +8286,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8613,7 +8586,7 @@
         <v>74</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -8641,34 +8614,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -9151,7 +9124,7 @@
         <v>316</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>69</v>
@@ -9177,7 +9150,7 @@
         <v>316</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>69</v>
@@ -9457,7 +9430,7 @@
         <v>222</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="53" t="s">
         <v>69</v>
@@ -9475,7 +9448,7 @@
         <v>675</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="53" t="s">
         <v>69</v>
@@ -9493,7 +9466,7 @@
         <v>767</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="53" t="s">
         <v>69</v>

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D9BB5-8AAC-2C4C-A75F-BAC56815C7BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415E393-2DF2-5D4F-9F91-5E5A120248FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38020" windowHeight="21840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="460" windowWidth="38020" windowHeight="21840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="124">
   <si>
     <t>Author:</t>
   </si>
@@ -1047,11 +1047,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1065,38 +1092,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1105,18 +1117,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,51 +1519,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="65"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="81">
         <v>42895</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1579,228 +1579,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="77"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="70"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="75"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1813,238 +1813,286 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="76"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="76"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="71"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="73"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="73"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="73"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="79"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="79" t="s">
+      <c r="H28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="79"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="79"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="79" t="s">
+      <c r="H30" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="79"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="73" t="s">
+      <c r="H31" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="73"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="73"/>
+      <c r="I32" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2055,54 +2103,6 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2159,34 +2159,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2631,34 +2631,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2937,34 +2937,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3651,34 +3651,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4413,34 +4413,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5005,13 +5005,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="88" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="85" t="s">
@@ -5023,63 +5023,63 @@
       <c r="F1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="87" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="87" t="s">
+      <c r="V1" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="87" t="s">
+      <c r="W1" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="87" t="s">
+      <c r="X1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="87" t="s">
+      <c r="Y1" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="87" t="s">
+      <c r="Z1" s="82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
       <c r="D2" s="85"/>
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -5107,12 +5107,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5172,6 +5172,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5180,16 +5190,6 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5198,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD49"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5250,34 +5250,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5492,11 +5492,11 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="29">
-        <v>229</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>84</v>
+      <c r="A13" s="39">
+        <v>36</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>69</v>
@@ -5517,10 +5517,10 @@
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>69</v>
@@ -5539,12 +5539,22 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="54"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="55"/>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="29">
+        <v>224</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -5553,36 +5563,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="29">
-        <v>252</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>69</v>
-      </c>
+    <row r="16" spans="1:12">
+      <c r="A16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="29"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="29">
+        <v>252</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -5591,22 +5601,12 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="29">
-        <v>713</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>69</v>
-      </c>
+    <row r="18" spans="1:12">
+      <c r="A18" s="29"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -5615,12 +5615,22 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="39"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+    <row r="19" spans="1:12" ht="16">
+      <c r="A19" s="29">
+        <v>713</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -5629,25 +5639,13 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="39">
-        <v>830</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>69</v>
-      </c>
+    <row r="20" spans="1:12">
+      <c r="A20" s="39"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
@@ -5655,39 +5653,51 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="14" customHeight="1">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="39">
+        <v>830</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" ht="14" customHeight="1">
+      <c r="A22" s="39">
         <v>833</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B22" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" ht="14" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="28"/>
+      <c r="C22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -5709,38 +5719,26 @@
       <c r="K23" s="36"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="29">
-        <v>313</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="34"/>
+    <row r="24" spans="1:12" ht="14" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>69</v>
@@ -5763,10 +5761,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>712</v>
+        <v>321</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>69</v>
@@ -5789,10 +5787,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>316</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>111</v>
+        <v>712</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>69</v>
@@ -5815,10 +5813,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>317</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>73</v>
+        <v>316</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>69</v>
@@ -5837,38 +5835,40 @@
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="28"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="29">
-        <v>250</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="A29" s="29">
+        <v>317</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="54"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -5877,12 +5877,12 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="29">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>69</v>
@@ -5893,9 +5893,7 @@
       <c r="E31" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -5905,10 +5903,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>69</v>
@@ -5931,10 +5929,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="56" t="s">
         <v>69</v>
@@ -5956,12 +5954,24 @@
       <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="54"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="A34" s="29">
+        <v>373</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -5969,40 +5979,26 @@
       <c r="K34" s="36"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="29">
+    <row r="35" spans="1:12">
+      <c r="A35" s="54"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="28"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="A36" s="29">
         <v>601</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B36" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row r="36" spans="1:12" ht="16">
-      <c r="A36" s="29">
-        <v>600</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>100</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>69</v>
@@ -6025,36 +6021,40 @@
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="29">
+        <v>600</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>813</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>69</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="54"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
@@ -6063,130 +6063,130 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-    </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="58">
-        <v>222</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="53"/>
+    <row r="39" spans="1:12" ht="16">
+      <c r="A39" s="29">
+        <v>813</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:12" ht="16">
       <c r="A41" s="58">
+        <v>222</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="53"/>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="58">
         <v>675</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="39">
+      <c r="C42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16">
+      <c r="A43" s="39">
         <v>767</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B43" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="16">
-      <c r="A44" s="39">
-        <v>972</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
+      <c r="C43" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="16">
       <c r="A45" s="39">
-        <v>69</v>
+        <v>972</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+        <v>118</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
     </row>
     <row r="46" spans="1:12" ht="16">
       <c r="A46" s="39">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" s="53" t="s">
         <v>69</v>
@@ -6207,10 +6207,10 @@
     </row>
     <row r="47" spans="1:12" ht="16">
       <c r="A47" s="39">
-        <v>78</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>121</v>
+        <v>79</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>120</v>
       </c>
       <c r="C47" s="53" t="s">
         <v>69</v>
@@ -6226,15 +6226,15 @@
       <c r="H47" s="53"/>
       <c r="I47" s="53"/>
       <c r="J47" s="53"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" ht="16">
       <c r="A48" s="39">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" s="53" t="s">
         <v>69</v>
@@ -6250,15 +6250,15 @@
       <c r="H48" s="53"/>
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
     </row>
     <row r="49" spans="1:12" ht="16">
-      <c r="A49" s="29">
-        <v>63</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>123</v>
+      <c r="A49" s="39">
+        <v>74</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="C49" s="53" t="s">
         <v>69</v>
@@ -6276,6 +6276,30 @@
       <c r="J49" s="53"/>
       <c r="K49" s="46"/>
       <c r="L49" s="46"/>
+    </row>
+    <row r="50" spans="1:12" ht="16">
+      <c r="A50" s="29">
+        <v>63</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6292,10 +6316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6344,34 +6368,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6586,11 +6610,11 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="29">
-        <v>229</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>84</v>
+      <c r="A13" s="39">
+        <v>36</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>69</v>
@@ -6611,10 +6635,10 @@
     </row>
     <row r="14" spans="1:12" ht="16">
       <c r="A14" s="29">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>69</v>
@@ -6633,12 +6657,22 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="54"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="55"/>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="29">
+        <v>224</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
@@ -6647,36 +6681,36 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="29">
-        <v>252</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>69</v>
-      </c>
+    <row r="16" spans="1:12">
+      <c r="A16" s="54"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="29"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" ht="16">
+      <c r="A17" s="29">
+        <v>252</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
@@ -6685,22 +6719,12 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="29">
-        <v>713</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>69</v>
-      </c>
+    <row r="18" spans="1:12">
+      <c r="A18" s="29"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -6709,12 +6733,22 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="39"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+    <row r="19" spans="1:12" ht="16">
+      <c r="A19" s="29">
+        <v>713</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -6723,25 +6757,13 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="39">
-        <v>830</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>69</v>
-      </c>
+    <row r="20" spans="1:12">
+      <c r="A20" s="39"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
@@ -6749,39 +6771,51 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" ht="14" customHeight="1">
+    <row r="21" spans="1:12" ht="16">
       <c r="A21" s="39">
+        <v>830</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" ht="14" customHeight="1">
+      <c r="A22" s="39">
         <v>833</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B22" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12" ht="14" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="28"/>
+      <c r="C22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="G22" s="28"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
@@ -6803,38 +6837,26 @@
       <c r="K23" s="36"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="29">
-        <v>313</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="34"/>
+    <row r="24" spans="1:12" ht="14" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="29">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>69</v>
@@ -6857,10 +6879,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="29">
-        <v>712</v>
+        <v>321</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>69</v>
@@ -6883,10 +6905,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="29">
-        <v>316</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>111</v>
+        <v>712</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>69</v>
@@ -6909,10 +6931,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="29">
-        <v>317</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>73</v>
+        <v>316</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>69</v>
@@ -6931,38 +6953,40 @@
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="54"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="28"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
-      <c r="A30" s="29">
-        <v>250</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="A29" s="29">
+        <v>317</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="54"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -6971,12 +6995,12 @@
       <c r="K30" s="36"/>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="29">
-        <v>371</v>
+        <v>250</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>69</v>
@@ -6987,9 +7011,7 @@
       <c r="E31" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -6999,10 +7021,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="29">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>69</v>
@@ -7025,10 +7047,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="29">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="56" t="s">
         <v>69</v>
@@ -7050,12 +7072,24 @@
       <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="54"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="A34" s="29">
+        <v>373</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -7063,40 +7097,26 @@
       <c r="K34" s="36"/>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
-      <c r="A35" s="29">
+    <row r="35" spans="1:12">
+      <c r="A35" s="54"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="28"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="A36" s="29">
         <v>601</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B36" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-    </row>
-    <row r="36" spans="1:12" ht="16">
-      <c r="A36" s="29">
-        <v>600</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>100</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>69</v>
@@ -7119,36 +7139,40 @@
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="54"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+    <row r="37" spans="1:12" ht="16">
+      <c r="A37" s="29">
+        <v>600</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="G37" s="57"/>
       <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
     </row>
-    <row r="38" spans="1:12" ht="16">
-      <c r="A38" s="29">
-        <v>813</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="57" t="s">
-        <v>69</v>
-      </c>
+    <row r="38" spans="1:12">
+      <c r="A38" s="54"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
@@ -7157,75 +7181,99 @@
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-    </row>
-    <row r="40" spans="1:12" ht="16">
-      <c r="A40" s="58">
-        <v>222</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="53"/>
+    <row r="39" spans="1:12" ht="16">
+      <c r="A39" s="29">
+        <v>813</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
     </row>
     <row r="41" spans="1:12" ht="16">
       <c r="A41" s="58">
+        <v>222</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="53"/>
+    </row>
+    <row r="42" spans="1:12" ht="16">
+      <c r="A42" s="58">
         <v>675</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B42" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="16">
-      <c r="A42" s="39">
+      <c r="C42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="16">
+      <c r="A43" s="39">
         <v>767</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B43" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="53" t="s">
+      <c r="C43" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="53" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7296,34 +7344,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7626,34 +7674,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7956,34 +8004,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8286,34 +8334,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8614,34 +8662,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>

--- a/banks/inspire/catalog/operation_types_inspire.xlsx
+++ b/banks/inspire/catalog/operation_types_inspire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/inspire/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5415E393-2DF2-5D4F-9F91-5E5A120248FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054446A9-466D-FC44-AFE0-B85D8741309C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="460" windowWidth="38020" windowHeight="21840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="38020" windowHeight="21840" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="124">
   <si>
     <t>Author:</t>
   </si>
@@ -1047,38 +1047,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1092,23 +1065,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,6 +1105,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,51 +1519,51 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="66">
         <v>42895</v>
       </c>
-      <c r="I4" s="81"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2"/>
@@ -1579,228 +1579,228 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="5">
         <v>42895</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="79"/>
+      <c r="I8" s="70"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="6">
         <v>42767</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="7">
         <v>42900</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="75"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="8">
         <v>42795</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="7">
         <v>42920</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="75"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="8">
         <v>42826</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="75"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="8">
         <v>42856</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="7">
         <v>42947</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="8">
         <v>42887</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="7">
         <v>42970</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="75"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="8">
         <v>42917</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="7">
         <v>42976</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="75"/>
+      <c r="I14" s="72"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="8">
         <v>42948</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="7">
         <v>42986</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="8">
         <v>42979</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="7">
         <v>42986</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="8">
         <v>43009</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="7">
         <v>43013</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="H17" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="8">
         <v>43040</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="7">
         <v>43025</v>
       </c>
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="9">
         <v>43070</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="10">
         <v>43047</v>
       </c>
@@ -1813,286 +1813,238 @@
       <c r="B20" s="12">
         <v>41275</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="13">
         <v>43069</v>
       </c>
-      <c r="H20" s="72" t="s">
+      <c r="H20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="72"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12">
         <v>41640</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="13">
         <v>43074</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12">
         <v>42005</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="13">
         <v>43107</v>
       </c>
-      <c r="H22" s="72" t="s">
+      <c r="H22" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="14">
         <v>42370</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="7">
         <v>43115</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="73"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="14">
         <v>42736</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="7">
         <v>43116</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="66"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="14">
         <v>43101</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="7">
         <v>43117</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="66"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="14">
         <v>43466</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="7">
         <v>43146</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="66"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="2:9" ht="37.5" customHeight="1">
       <c r="B27" s="16">
         <v>43831</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
       <c r="G27" s="17">
         <v>43238</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="2:9" ht="15" customHeight="1">
       <c r="B28" s="16">
         <v>44197</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="17">
         <v>43271</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="68"/>
+      <c r="I28" s="79"/>
     </row>
     <row r="29" spans="2:9" ht="15" customHeight="1">
       <c r="B29" s="16">
         <v>44562</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="17">
         <v>43314</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:9" ht="14.75" customHeight="1">
       <c r="B30" s="16">
         <v>44927</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="17">
         <v>43315</v>
       </c>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="68"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="2:9" ht="14.75" customHeight="1">
       <c r="B31" s="16">
         <v>44928</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="17">
         <v>43361</v>
       </c>
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="66"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="2:9" ht="15" customHeight="1">
       <c r="B32" s="16">
         <v>43405</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
       <c r="G32" s="17">
         <v>43361</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I32" s="66"/>
+      <c r="I32" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="C32:F32"/>
@@ -2103,6 +2055,54 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C30:F30"/>
     <mergeCell ref="H30:I30"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2159,34 +2159,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2631,34 +2631,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -2937,34 +2937,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -3651,34 +3651,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -4413,34 +4413,34 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" thickBot="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1" thickBot="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5005,13 +5005,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="84" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="85" t="s">
@@ -5023,63 +5023,63 @@
       <c r="F1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="82" t="s">
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="82" t="s">
+      <c r="V1" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="82" t="s">
+      <c r="W1" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="82" t="s">
+      <c r="X1" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="82" t="s">
+      <c r="Y1" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="82" t="s">
+      <c r="Z1" s="87" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="33.5" customHeight="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="85"/>
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="24" t="s">
         <v>59</v>
       </c>
@@ -5107,12 +5107,12 @@
       <c r="T2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="15" t="s">
@@ -5172,16 +5172,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -5190,6 +5180,16 @@
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5200,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5250,34 +5250,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -5507,7 +5507,9 @@
       <c r="E13" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
@@ -6318,8 +6320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6368,34 +6370,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -6625,7 +6627,9 @@
       <c r="E13" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
@@ -7344,34 +7348,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -7674,34 +7678,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8004,34 +8008,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8334,34 +8338,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
@@ -8662,34 +8666,34 @@
       <c r="J2"/>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="33.5" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="24" t="s">
         <v>59</v>
       </c>
